--- a/municipal/ENG/Education/Preschool and Education Institutions/C. Tbilisi.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/C. Tbilisi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social Statistic\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Preschool and Education Institutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,6 +96,16 @@
         <family val="1"/>
       </rPr>
       <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> municipality</t>
     </r>
   </si>
 </sst>
@@ -315,27 +325,27 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +630,7 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,16 +645,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -654,16 +664,16 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -701,11 +711,11 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="10">
         <v>171</v>
       </c>
@@ -733,11 +743,11 @@
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="13">
         <v>61500</v>
       </c>
@@ -765,11 +775,11 @@
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="13">
         <v>4164</v>
       </c>
@@ -797,11 +807,11 @@
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="13">
         <v>14.769452449567723</v>
       </c>
@@ -839,11 +849,11 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="18">
         <v>53.077777499682831</v>
       </c>
@@ -881,11 +891,11 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="19">
         <v>6775.8888888888878</v>
       </c>
@@ -925,11 +935,11 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
